--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#70#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_train.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#70#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_train.xlsx
@@ -503,46 +503,46 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7250135557872784</v>
+        <v>0.6920382165605093</v>
       </c>
       <c r="C4">
-        <v>0.004288519710877292</v>
+        <v>0.003566467800395934</v>
       </c>
       <c r="D4">
-        <v>0.5836896478047141</v>
+        <v>0.5438214396062473</v>
       </c>
       <c r="E4">
-        <v>0.00463217543165817</v>
+        <v>0.004308848111944985</v>
       </c>
       <c r="F4">
-        <v>0.7172857142857143</v>
+        <v>0.671219512195122</v>
       </c>
       <c r="G4">
-        <v>0.006087468347091729</v>
+        <v>0.006359675494449935</v>
       </c>
       <c r="H4">
-        <v>0.4925595606604016</v>
+        <v>0.4573849292355738</v>
       </c>
       <c r="I4">
-        <v>0.004895446228936062</v>
+        <v>0.003876881581713731</v>
       </c>
       <c r="J4">
-        <v>0.8113417482103482</v>
+        <v>0.7727766154456249</v>
       </c>
       <c r="K4">
-        <v>0.003606153032238213</v>
+        <v>0.003687340097243141</v>
       </c>
       <c r="L4">
-        <v>0.6212408759124087</v>
+        <v>0.5836305732484076</v>
       </c>
       <c r="M4">
-        <v>0.006723986438547769</v>
+        <v>0.005239183783959267</v>
       </c>
       <c r="N4">
-        <v>0.6537198067632852</v>
+        <v>0.6136820083682007</v>
       </c>
       <c r="O4">
-        <v>0.00482440988071231</v>
+        <v>0.004013891758878341</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -550,46 +550,46 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7394796663190827</v>
+        <v>0.7282771477396301</v>
       </c>
       <c r="C5">
-        <v>0.003964058199443343</v>
+        <v>0.00395776894259614</v>
       </c>
       <c r="D5">
-        <v>0.5989560323449798</v>
+        <v>0.5759944124161724</v>
       </c>
       <c r="E5">
-        <v>0.004490025210396986</v>
+        <v>0.004930328633723335</v>
       </c>
       <c r="F5">
-        <v>0.7185714285714286</v>
+        <v>0.6757317073170732</v>
       </c>
       <c r="G5">
-        <v>0.006577140552506799</v>
+        <v>0.006046703780416385</v>
       </c>
       <c r="H5">
-        <v>0.5140006208260182</v>
+        <v>0.5023824441371388</v>
       </c>
       <c r="I5">
-        <v>0.004514936685231175</v>
+        <v>0.005162642401240564</v>
       </c>
       <c r="J5">
-        <v>0.8195072214760919</v>
+        <v>0.7931163420508716</v>
       </c>
       <c r="K5">
-        <v>0.003561830111674769</v>
+        <v>0.003529857172171247</v>
       </c>
       <c r="L5">
-        <v>0.652043795620438</v>
+        <v>0.6494267515923566</v>
       </c>
       <c r="M5">
-        <v>0.005778887678531297</v>
+        <v>0.006183458047979595</v>
       </c>
       <c r="N5">
-        <v>0.6745410628019325</v>
+        <v>0.6584518828451883</v>
       </c>
       <c r="O5">
-        <v>0.004185263764000746</v>
+        <v>0.004732821353172878</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -597,46 +597,46 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8427591836734695</v>
+        <v>0.8459080459770115</v>
       </c>
       <c r="C6">
-        <v>0.006253103234120538</v>
+        <v>0.005880982008701685</v>
       </c>
       <c r="D6">
-        <v>0.7181637457926356</v>
+        <v>0.7098276659487806</v>
       </c>
       <c r="E6">
-        <v>0.009666095325205348</v>
+        <v>0.009069261090469793</v>
       </c>
       <c r="F6">
-        <v>0.8472</v>
+        <v>0.8324137931034482</v>
       </c>
       <c r="G6">
-        <v>0.008619430907535586</v>
+        <v>0.007720185890460751</v>
       </c>
       <c r="H6">
-        <v>0.6255856705482017</v>
+        <v>0.6202574397587951</v>
       </c>
       <c r="I6">
-        <v>0.01225759644283653</v>
+        <v>0.01100781425683262</v>
       </c>
       <c r="J6">
-        <v>0.9039561286416929</v>
+        <v>0.9021222614634904</v>
       </c>
       <c r="K6">
-        <v>0.005335952940964783</v>
+        <v>0.004602318460406707</v>
       </c>
       <c r="L6">
-        <v>0.7357142857142857</v>
+        <v>0.7498333333333332</v>
       </c>
       <c r="M6">
-        <v>0.01320499080965665</v>
+        <v>0.01083639675005466</v>
       </c>
       <c r="N6">
-        <v>0.7733783783783784</v>
+        <v>0.7767415730337077</v>
       </c>
       <c r="O6">
-        <v>0.009595106436080525</v>
+        <v>0.008488958431546845</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -644,46 +644,46 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8607020408163264</v>
+        <v>0.8609425287356324</v>
       </c>
       <c r="C7">
-        <v>0.00515046081134285</v>
+        <v>0.00530815865363321</v>
       </c>
       <c r="D7">
-        <v>0.7305340419461358</v>
+        <v>0.7302680894188659</v>
       </c>
       <c r="E7">
-        <v>0.007937567982526317</v>
+        <v>0.007343519346526883</v>
       </c>
       <c r="F7">
-        <v>0.8360000000000001</v>
+        <v>0.8368965517241379</v>
       </c>
       <c r="G7">
-        <v>0.009471987274785598</v>
+        <v>0.007771162900552464</v>
       </c>
       <c r="H7">
-        <v>0.6507736007342522</v>
+        <v>0.6489389295535442</v>
       </c>
       <c r="I7">
-        <v>0.009963025738866316</v>
+        <v>0.008713698799031389</v>
       </c>
       <c r="J7">
-        <v>0.9022378947837469</v>
+        <v>0.9081769114454381</v>
       </c>
       <c r="K7">
-        <v>0.005210694917921255</v>
+        <v>0.004218334919147582</v>
       </c>
       <c r="L7">
-        <v>0.7677551020408163</v>
+        <v>0.7789999999999999</v>
       </c>
       <c r="M7">
-        <v>0.01017911366003188</v>
+        <v>0.008284189282942278</v>
       </c>
       <c r="N7">
-        <v>0.7908108108108108</v>
+        <v>0.7978651685393257</v>
       </c>
       <c r="O7">
-        <v>0.007245977367036582</v>
+        <v>0.006490227852572472</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -691,46 +691,46 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7872895408163264</v>
+        <v>0.7794598425196851</v>
       </c>
       <c r="C8">
-        <v>0.004220572359580399</v>
+        <v>0.00392861557323787</v>
       </c>
       <c r="D8">
-        <v>0.584818000002975</v>
+        <v>0.5785367012504419</v>
       </c>
       <c r="E8">
-        <v>0.006240272245570444</v>
+        <v>0.005724464334991297</v>
       </c>
       <c r="F8">
-        <v>0.7433333333333333</v>
+        <v>0.7360000000000001</v>
       </c>
       <c r="G8">
-        <v>0.006667018690048931</v>
+        <v>0.006745040636629618</v>
       </c>
       <c r="H8">
-        <v>0.4826273298052451</v>
+        <v>0.4768305293585094</v>
       </c>
       <c r="I8">
-        <v>0.00650993315204812</v>
+        <v>0.005424756491116678</v>
       </c>
       <c r="J8">
-        <v>0.8788887353514393</v>
+        <v>0.8675791566247628</v>
       </c>
       <c r="K8">
-        <v>0.003195628529366612</v>
+        <v>0.003401351158770272</v>
       </c>
       <c r="L8">
-        <v>0.6994642857142859</v>
+        <v>0.6813385826771652</v>
       </c>
       <c r="M8">
-        <v>0.006974747521196756</v>
+        <v>0.004952902004390358</v>
       </c>
       <c r="N8">
-        <v>0.7114285714285715</v>
+        <v>0.6967796610169492</v>
       </c>
       <c r="O8">
-        <v>0.005786296995920925</v>
+        <v>0.004750918760013767</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -738,46 +738,46 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7954719387755101</v>
+        <v>0.7899511811023622</v>
       </c>
       <c r="C9">
-        <v>0.003817782575557871</v>
+        <v>0.003592399234988997</v>
       </c>
       <c r="D9">
-        <v>0.5870654961242738</v>
+        <v>0.5795847229204601</v>
       </c>
       <c r="E9">
-        <v>0.007184238989153213</v>
+        <v>0.004550874639122515</v>
       </c>
       <c r="F9">
-        <v>0.7485714285714287</v>
+        <v>0.7303999999999999</v>
       </c>
       <c r="G9">
-        <v>0.008711744441624147</v>
+        <v>0.006061358055931998</v>
       </c>
       <c r="H9">
-        <v>0.4840618780924098</v>
+        <v>0.4806437797015907</v>
       </c>
       <c r="I9">
-        <v>0.007645318859197225</v>
+        <v>0.004232103799053366</v>
       </c>
       <c r="J9">
-        <v>0.8810258746912314</v>
+        <v>0.8665300661379244</v>
       </c>
       <c r="K9">
-        <v>0.003794619681726674</v>
+        <v>0.002820018535151014</v>
       </c>
       <c r="L9">
-        <v>0.6980357142857142</v>
+        <v>0.6888188976377952</v>
       </c>
       <c r="M9">
-        <v>0.009052398160526498</v>
+        <v>0.004133537866868986</v>
       </c>
       <c r="N9">
-        <v>0.7118181818181819</v>
+        <v>0.7005649717514124</v>
       </c>
       <c r="O9">
-        <v>0.006910146889351654</v>
+        <v>0.003702628755526405</v>
       </c>
     </row>
   </sheetData>
